--- a/xlsx/部_intext.xlsx
+++ b/xlsx/部_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>部</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>最高領導人</t>
+    <t>最高领导人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%BB%E5%B8%AD</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>首席部長</t>
+    <t>首席部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%9D%A3</t>
@@ -113,25 +113,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>行政長官</t>
+    <t>行政长官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
+    <t>内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E8%B2%A0%E8%B2%AC%E5%88%B6</t>
   </si>
   <si>
-    <t>集體負責制</t>
+    <t>集体负责制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>部長</t>
+    <t>部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%87%A3</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
   </si>
   <si>
-    <t>國務卿</t>
+    <t>国务卿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E9%95%BF</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%88%B6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E5%88%B6%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>君主專制</t>
+    <t>君主专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A2%86%E5%AF%BC%E4%BA%BA%E5%88%97%E8%A1%A8</t>
@@ -233,31 +233,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政府列表</t>
+    <t>各国政府列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%A1%8C%E6%94%BF%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>Template talk-行政部門</t>
+    <t>Template talk-行政部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>機構</t>
+    <t>机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3</t>
   </si>
   <si>
-    <t>現代</t>
+    <t>现代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>行政部門</t>
+    <t>行政部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E9%83%A8</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>財政部</t>
+    <t>财政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國歷史</t>
+    <t>中国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E9%83%A8</t>
@@ -305,13 +305,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%98%81</t>
   </si>
   <si>
-    <t>内阁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2080,7 +2077,7 @@
         <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2106,10 +2103,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2135,10 +2132,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
